--- a/personalAccounts/torneo Mágico.xlsx
+++ b/personalAccounts/torneo Mágico.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndresNbk\Dropbox\saved\"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
   <si>
     <t>1er Torneo fútbol Mágico</t>
   </si>
@@ -216,9 +216,6 @@
     <t>Carlos</t>
   </si>
   <si>
-    <t>Huguito</t>
-  </si>
-  <si>
     <t>Pantera</t>
   </si>
   <si>
@@ -237,15 +234,6 @@
     <t>Guillermo Cuñado</t>
   </si>
   <si>
-    <t>(*)</t>
-  </si>
-  <si>
-    <t>Hernan</t>
-  </si>
-  <si>
-    <t>Miguelo</t>
-  </si>
-  <si>
     <t>Magico</t>
   </si>
   <si>
@@ -255,10 +243,64 @@
     <t>Panda</t>
   </si>
   <si>
-    <t>Arquitecto</t>
-  </si>
-  <si>
-    <t>(*) a resolver por tribunal de disciplina</t>
+    <t>Arquitecto (*)</t>
+  </si>
+  <si>
+    <t>Huguito (*)</t>
+  </si>
+  <si>
+    <t>(*) resolucion 20231009 por votacion en el grupo, visto suceso de actitud antideportiva de no avisar que no venian en la fecha 02/10/2023, (**) y partir de la fecha son -3 puntos por no avisar.</t>
+  </si>
+  <si>
+    <t>Crillin</t>
+  </si>
+  <si>
+    <t>Adrian Bueno</t>
+  </si>
+  <si>
+    <t>Hernan (**)</t>
+  </si>
+  <si>
+    <t>Dario</t>
+  </si>
+  <si>
+    <t>(**) resolucion 20231106 por votacion en el grupo, visto suceso de actitud antideportiva de avisar con poco tiempo que no venia en la fecha 30/10/2023,  y partir de la fecha son -6 y pago de la cancha.</t>
+  </si>
+  <si>
+    <t>Bocha</t>
+  </si>
+  <si>
+    <t>(***) Nota importante : en lo posible no venir en pedo</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>cancha</t>
+  </si>
+  <si>
+    <t>subtotal</t>
+  </si>
+  <si>
+    <t>jugo</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>sancion</t>
+  </si>
+  <si>
+    <t>detalle recaudacion</t>
+  </si>
+  <si>
+    <t>Migue</t>
+  </si>
+  <si>
+    <t>Tito</t>
   </si>
 </sst>
 </file>
@@ -268,7 +310,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,8 +342,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,8 +382,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -344,11 +424,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -371,12 +568,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF8696B"/>
+      <color rgb="FFFFEB84"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -685,6 +913,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -2177,10 +2406,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S34"/>
+  <sheetPr codeName="Hoja2"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2205,10 +2435,65 @@
     </row>
     <row r="2" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C3" s="15">
+        <f ca="1">IF(C4&lt;=TODAY(),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="15">
+        <f t="shared" ref="D3:O3" ca="1" si="0">IF(D4&lt;=TODAY(),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F3" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G3" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H3" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I3" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J3" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K3" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="16"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -2222,54 +2507,55 @@
         <v>45194</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:O4" si="0">+D4+7</f>
+        <f t="shared" ref="E4:O4" si="1">+D4+7</f>
         <v>45201</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45208</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" si="0"/>
-        <v>45215</v>
+        <f>+F4+14</f>
+        <v>45222</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" si="0"/>
-        <v>45222</v>
+        <f t="shared" si="1"/>
+        <v>45229</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="0"/>
-        <v>45229</v>
+        <f t="shared" si="1"/>
+        <v>45236</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="0"/>
-        <v>45236</v>
+        <f t="shared" si="1"/>
+        <v>45243</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="0"/>
-        <v>45243</v>
+        <f t="shared" si="1"/>
+        <v>45250</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" si="0"/>
-        <v>45250</v>
+        <f t="shared" si="1"/>
+        <v>45257</v>
       </c>
       <c r="M4" s="5">
-        <f t="shared" si="0"/>
-        <v>45257</v>
+        <f t="shared" si="1"/>
+        <v>45264</v>
       </c>
       <c r="N4" s="5">
-        <f t="shared" si="0"/>
-        <v>45264</v>
+        <f t="shared" si="1"/>
+        <v>45271</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="0"/>
-        <v>45271</v>
+        <f t="shared" si="1"/>
+        <v>45278</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="6">
-        <v>1</v>
+      <c r="S4" s="17">
+        <f ca="1">SUM(C3:O3)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -2333,22 +2619,30 @@
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="6">
-        <v>3</v>
-      </c>
-      <c r="D6" s="6">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="F6" s="11">
+        <v>3</v>
+      </c>
+      <c r="G6" s="11">
+        <v>3</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>3</v>
+      </c>
+      <c r="J6" s="6">
+        <v>3</v>
+      </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -2356,19 +2650,19 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6">
         <f>SUM(C6:N6)</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="6">
         <f>COUNT(C6:N6)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R6" s="8">
         <f>IF(Q6=0,0,P6/Q6)</f>
-        <v>2</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="S6" s="9">
-        <f>IF(P6=0,0,P6/$S$4)</f>
-        <v>6</v>
+        <f ca="1">IF(P6=0,0,P6/$S$4)</f>
+        <v>1.875</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
@@ -2377,22 +2671,32 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C7" s="6">
         <v>3</v>
       </c>
       <c r="D7" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="6">
-        <v>3</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>3</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>3</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -2400,24 +2704,24 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6">
         <f>SUM(C7:N7)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="6">
         <f>COUNT(C7:N7)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R7" s="8">
         <f>IF(Q7=0,0,P7/Q7)</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="S7" s="9">
-        <f>IF(P7=0,0,P7/$S$4)</f>
-        <v>6</v>
+        <f ca="1">IF(P7=0,0,P7/$S$4)</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
-        <f t="shared" ref="A8:A29" si="1">+A7+1</f>
+        <f t="shared" ref="A8:A30" si="2">+A7+1</f>
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2432,11 +2736,21 @@
       <c r="E8" s="6">
         <v>3</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>3</v>
+      </c>
+      <c r="I8" s="11">
+        <v>3</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -2444,24 +2758,24 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6">
         <f>SUM(C8:N8)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="6">
         <f>COUNT(C8:N8)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R8" s="8">
         <f>IF(Q8=0,0,P8/Q8)</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="S8" s="9">
-        <f>IF(P8=0,0,P8/$S$4)</f>
-        <v>6</v>
+        <f ca="1">IF(P8=0,0,P8/$S$4)</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -2476,11 +2790,21 @@
       <c r="E9" s="6">
         <v>3</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>3</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -2488,41 +2812,49 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6">
         <f>SUM(C9:N9)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q9" s="6">
         <f>COUNT(C9:N9)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R9" s="8">
         <f>IF(Q9=0,0,P9/Q9)</f>
-        <v>2</v>
+        <v>1.125</v>
       </c>
       <c r="S9" s="9">
-        <f>IF(P9=0,0,P9/$S$4)</f>
-        <v>6</v>
+        <f ca="1">IF(P9=0,0,P9/$S$4)</f>
+        <v>1.125</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="6">
-        <v>3</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>3</v>
+      </c>
+      <c r="H10" s="11">
+        <v>3</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>3</v>
+      </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -2530,28 +2862,28 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6">
         <f>SUM(C10:N10)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q10" s="6">
         <f>COUNT(C10:N10)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R10" s="8">
         <f>IF(Q10=0,0,P10/Q10)</f>
         <v>1.5</v>
       </c>
       <c r="S10" s="9">
-        <f>IF(P10=0,0,P10/$S$4)</f>
-        <v>3</v>
+        <f ca="1">IF(P10=0,0,P10/$S$4)</f>
+        <v>1.125</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C11" s="6">
         <v>3</v>
@@ -2559,12 +2891,20 @@
       <c r="D11" s="6">
         <v>0</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="E11" s="6">
+        <v>3</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -2572,24 +2912,24 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6">
         <f>SUM(C11:N11)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q11" s="6">
         <f>COUNT(C11:N11)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R11" s="8">
         <f>IF(Q11=0,0,P11/Q11)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="S11" s="9">
-        <f>IF(P11=0,0,P11/$S$4)</f>
-        <v>3</v>
+        <f ca="1">IF(P11=0,0,P11/$S$4)</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -2602,11 +2942,19 @@
         <v>3</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11">
+        <v>3</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -2614,40 +2962,42 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6">
         <f>SUM(C12:N12)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q12" s="6">
         <f>COUNT(C12:N12)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R12" s="8">
         <f>IF(Q12=0,0,P12/Q12)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="S12" s="9">
-        <f>IF(P12=0,0,P12/$S$4)</f>
-        <v>3</v>
+        <f ca="1">IF(P12=0,0,P12/$S$4)</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="6">
-        <v>3</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11">
+        <v>3</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="18">
+        <v>3</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -2656,39 +3006,47 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6">
         <f>SUM(C13:N13)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q13" s="6">
         <f>COUNT(C13:N13)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R13" s="8">
         <f>IF(Q13=0,0,P13/Q13)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="S13" s="9">
-        <f>IF(P13=0,0,P13/$S$4)</f>
-        <v>3</v>
+        <f ca="1">IF(P13=0,0,P13/$S$4)</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="11">
-        <v>3</v>
-      </c>
+      <c r="B14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="E14" s="12">
+        <v>-3</v>
+      </c>
+      <c r="F14" s="11">
+        <v>3</v>
+      </c>
+      <c r="G14" s="11">
+        <v>3</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="J14" s="6">
+        <v>3</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -2696,39 +3054,41 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6">
         <f>SUM(C14:N14)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q14" s="6">
         <f>COUNT(C14:N14)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R14" s="8">
         <f>IF(Q14=0,0,P14/Q14)</f>
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="S14" s="9">
-        <f>IF(P14=0,0,P14/$S$4)</f>
-        <v>3</v>
+        <f ca="1">IF(P14=0,0,P14/$S$4)</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="6">
-        <v>3</v>
-      </c>
+      <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="6">
+        <v>3</v>
+      </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="J15" s="6">
+        <v>3</v>
+      </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -2736,36 +3096,38 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6">
         <f>SUM(C15:N15)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q15" s="6">
         <f>COUNT(C15:N15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15" s="8">
         <f>IF(Q15=0,0,P15/Q15)</f>
         <v>3</v>
       </c>
       <c r="S15" s="9">
-        <f>IF(P15=0,0,P15/$S$4)</f>
-        <v>3</v>
+        <f ca="1">IF(P15=0,0,P15/$S$4)</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6">
-        <v>3</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -2780,32 +3142,34 @@
       </c>
       <c r="Q16" s="6">
         <f>COUNT(C16:N16)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R16" s="8">
         <f>IF(Q16=0,0,P16/Q16)</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="S16" s="9">
-        <f>IF(P16=0,0,P16/$S$4)</f>
-        <v>3</v>
+        <f ca="1">IF(P16=0,0,P16/$S$4)</f>
+        <v>0.375</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -2816,38 +3180,36 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6">
         <f>SUM(C17:N17)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="6">
         <f>COUNT(C17:N17)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" s="8">
         <f>IF(Q17=0,0,P17/Q17)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S17" s="9">
-        <f>IF(P17=0,0,P17/$S$4)</f>
-        <v>0</v>
+        <f ca="1">IF(P17=0,0,P17/$S$4)</f>
+        <v>0.375</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="C18" s="11">
+        <v>3</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -2858,7 +3220,7 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6">
         <f>SUM(C18:N18)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q18" s="6">
         <f>COUNT(C18:N18)</f>
@@ -2866,16 +3228,16 @@
       </c>
       <c r="R18" s="8">
         <f>IF(Q18=0,0,P18/Q18)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S18" s="9">
-        <f>IF(P18=0,0,P18/$S$4)</f>
-        <v>0</v>
+        <f ca="1">IF(P18=0,0,P18/$S$4)</f>
+        <v>0.375</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -2883,11 +3245,11 @@
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -2898,7 +3260,7 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6">
         <f>SUM(C19:N19)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q19" s="6">
         <f>COUNT(C19:N19)</f>
@@ -2906,28 +3268,28 @@
       </c>
       <c r="R19" s="8">
         <f>IF(Q19=0,0,P19/Q19)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S19" s="9">
-        <f>IF(P19=0,0,P19/$S$4)</f>
-        <v>0</v>
+        <f ca="1">IF(P19=0,0,P19/$S$4)</f>
+        <v>0.375</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <v>3</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -2938,7 +3300,7 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6">
         <f>SUM(C20:N20)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="6">
         <f>COUNT(C20:N20)</f>
@@ -2946,29 +3308,29 @@
       </c>
       <c r="R20" s="8">
         <f>IF(Q20=0,0,P20/Q20)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S20" s="9">
-        <f>IF(P20=0,0,P20/$S$4)</f>
-        <v>0</v>
+        <f ca="1">IF(P20=0,0,P20/$S$4)</f>
+        <v>0.375</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="H21" s="6">
+        <v>3</v>
+      </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -2978,7 +3340,7 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6">
         <f>SUM(C21:N21)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q21" s="6">
         <f>COUNT(C21:N21)</f>
@@ -2986,30 +3348,30 @@
       </c>
       <c r="R21" s="8">
         <f>IF(Q21=0,0,P21/Q21)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S21" s="9">
-        <f>IF(P21=0,0,P21/$S$4)</f>
-        <v>0</v>
+        <f ca="1">IF(P21=0,0,P21/$S$4)</f>
+        <v>0.375</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
+      <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="I22" s="11">
+        <v>3</v>
+      </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -3018,7 +3380,7 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6">
         <f>SUM(C22:N22)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="6">
         <f>COUNT(C22:N22)</f>
@@ -3026,31 +3388,31 @@
       </c>
       <c r="R22" s="8">
         <f>IF(Q22=0,0,P22/Q22)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S22" s="9">
-        <f>IF(P22=0,0,P22/$S$4)</f>
-        <v>0</v>
+        <f ca="1">IF(P22=0,0,P22/$S$4)</f>
+        <v>0.375</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>69</v>
+      <c r="B23" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
+      <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="6">
+        <v>3</v>
+      </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -3058,7 +3420,7 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6">
         <f>SUM(C23:N23)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="6">
         <f>COUNT(C23:N23)</f>
@@ -3066,29 +3428,29 @@
       </c>
       <c r="R23" s="8">
         <f>IF(Q23=0,0,P23/Q23)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S23" s="9">
-        <f>IF(P23=0,0,P23/$S$4)</f>
-        <v>0</v>
+        <f ca="1">IF(P23=0,0,P23/$S$4)</f>
+        <v>0.375</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -3115,19 +3477,19 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>72</v>
+      <c r="B25" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -3142,7 +3504,7 @@
       </c>
       <c r="Q25" s="6">
         <f>COUNT(C25:N25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="8">
         <f>IF(Q25=0,0,P25/Q25)</f>
@@ -3155,15 +3517,19 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -3178,7 +3544,7 @@
       </c>
       <c r="Q26" s="6">
         <f>COUNT(C26:N26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="8">
         <f>IF(Q26=0,0,P26/Q26)</f>
@@ -3191,17 +3557,23 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="11"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="I27" s="11"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -3214,7 +3586,7 @@
       </c>
       <c r="Q27" s="6">
         <f>COUNT(C27:N27)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R27" s="8">
         <f>IF(Q27=0,0,P27/Q27)</f>
@@ -3227,15 +3599,19 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -3250,7 +3626,7 @@
       </c>
       <c r="Q28" s="6">
         <f>COUNT(C28:N28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="8">
         <f>IF(Q28=0,0,P28/Q28)</f>
@@ -3263,15 +3639,25 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="E29" s="12">
+        <v>-3</v>
+      </c>
+      <c r="F29" s="11">
+        <v>3</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -3286,7 +3672,7 @@
       </c>
       <c r="Q29" s="6">
         <f>COUNT(C29:N29)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R29" s="8">
         <f>IF(Q29=0,0,P29/Q29)</f>
@@ -3298,14 +3684,30 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B30" s="6"/>
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>3</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>-6</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -3314,80 +3716,182 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6">
         <f>SUM(C30:N30)</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
+        <v>-3</v>
+      </c>
+      <c r="Q30" s="6">
+        <f>COUNT(C30:N30)</f>
+        <v>5</v>
+      </c>
+      <c r="R30" s="8">
+        <f>IF(Q30=0,0,P30/Q30)</f>
+        <v>-0.6</v>
+      </c>
+      <c r="S30" s="9">
+        <f ca="1">IF(P30=0,0,P30/$S$4)</f>
+        <v>-0.375</v>
+      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
+      <c r="B31" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="3"/>
+      <c r="B32" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B33" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B35" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="37"/>
+      <c r="D35" s="38"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B36" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="23"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B37" s="24">
+        <v>8</v>
+      </c>
+      <c r="C37" s="25">
+        <v>800</v>
+      </c>
+      <c r="D37" s="26">
+        <f>+C37*B37</f>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B38" s="24">
+        <v>2</v>
+      </c>
+      <c r="C38" s="25">
+        <v>700</v>
+      </c>
+      <c r="D38" s="26">
+        <f>+C38*B38</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B39" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="28"/>
+      <c r="D39" s="29">
+        <f>SUM(D37:D38)</f>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B40" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32">
+        <v>-7000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B41" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B42" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B43" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="28"/>
+      <c r="D43" s="29">
+        <f>SUM(D39:D42)</f>
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B5:S5">
-    <sortState ref="B6:S30">
-      <sortCondition descending="1" ref="Q5"/>
+    <sortState ref="B6:S33">
+      <sortCondition descending="1" ref="P5"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="C30:O30">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:Q29">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="Q6:Q30">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3396,8 +3900,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R6:R29">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="R6:R30">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3410,8 +3914,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S6:S29">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="S6:S30">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3422,19 +3926,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:O29">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="C6:O30">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -3447,7 +3952,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>R6:R29</xm:sqref>
+          <xm:sqref>R6:R30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
